--- a/awsproject/students121.xlsx
+++ b/awsproject/students121.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -52,13 +52,25 @@
     <t>updated_on</t>
   </si>
   <si>
-    <t>ajay</t>
-  </si>
-  <si>
-    <t>2023-02-07T09:51:01.599484Z</t>
-  </si>
-  <si>
-    <t>2023-02-07T09:51:01.604488Z</t>
+    <t>abhijeet1</t>
+  </si>
+  <si>
+    <t>kumar</t>
+  </si>
+  <si>
+    <t>singh</t>
+  </si>
+  <si>
+    <t>abhijeet1@gmail.com</t>
+  </si>
+  <si>
+    <t>pbkdf2_sha256$390000$fe57XoELGliGdzR0N7Xoo2$q+sljMMuC6v7UTyyn+TQ9f6/S6VCZlTwkEFCLHsAyUk=</t>
+  </si>
+  <si>
+    <t>2023-03-15T07:03:57.108859Z</t>
+  </si>
+  <si>
+    <t>2023-03-15T07:03:57.108884Z</t>
   </si>
 </sst>
 </file>
@@ -462,19 +474,34 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
